--- a/medicine/Mort/Rotonde_des_Personnes_illustres/Rotonde_des_Personnes_illustres.xlsx
+++ b/medicine/Mort/Rotonde_des_Personnes_illustres/Rotonde_des_Personnes_illustres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Rotonde des Personnes illustres (en espagnol : Rotonda de las Personas Ilustres) est un espace mortuaire créé en 1872, à l'initiative du président de la République de l'époque, Sebastián Lerdo de Tejada, au sein du Panthéon civil de Dolores (es), dans la division territoriale de Miguel Hidalgo à Mexico.
 Cet ensemble de monuments a vocation à honorer de grandes personnalités ayant contribué de manière importante, tout au long de l'histoire, au rayonnement du Mexique. En particulier, les héros nationaux et ceux qui se sont distingués par leurs actions au service de la nation dans tous les domaines, qu'ils soient militaires, scientifiques, civiques ou culturels. Auparavant, elle s'appelait Rotonde des hommes illustres (Rotonda de los Hombres Ilustres) ; le nom a été modifié par décret le 26 février 2003, sous le gouvernement de Vicente Fox Quesada.
-La première personne inhumée dans la Rotonde fut le lieutenant-colonel Pedro Letechipía (es), le 21 mars 1876, lors d'une cérémonie présidée par le président du Mexique de l'époque, Sebastián Lerdo de Tejada[1].
+La première personne inhumée dans la Rotonde fut le lieutenant-colonel Pedro Letechipía (es), le 21 mars 1876, lors d'une cérémonie présidée par le président du Mexique de l'époque, Sebastián Lerdo de Tejada.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Administration et législation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par décret présidentiel du 4 mars 2003, l'Administration publique fédérale doit continuer à assumer les frais d'inhumation et d'hommage dans la rotonde, imputés au budget du ministère de l'Intérieur, qui préside le Conseil consultatif de la rotonde, lequel est composé du ministère de l'Intérieur lui-même et des secrétaires de la Défense nationale, de la Marine, de l'Éducation publique et de la Culture, qui peuvent tous désigner un suppléant.
 </t>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,7 +586,9 @@
           <t>Personnalités ayant un cénotaphe dans la Rotonde</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Juan Antonio Mateos (1831 - 1913).
 Jesús Reyes Heroles (1921 - 1985).</t>
@@ -601,7 +619,9 @@
           <t>Personnalités n'étant plus inhumées dans la Rotonde</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Manuel Acuña (1849 - 1873). Ses restes se trouvent dans la Rotonda de los Coahuilenses Ilustres (es).
 Ignacio Mejía (es) (1814 - 1906). Ses restes ont été perdus lors de la restructuration du panthéon.
